--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/075_GenericTableAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/075_GenericTableAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rb3c414a5097c42fe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R88e7a23f49d24917"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/075_GenericTableAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/075_GenericTableAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R88e7a23f49d24917"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rcb52e154c46f4b1d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/075_GenericTableAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/075_GenericTableAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rcb52e154c46f4b1d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rf8f489e48b234fc1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/075_GenericTableAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/075_GenericTableAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rf8f489e48b234fc1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R582ac89109ba405a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/075_GenericTableAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/075_GenericTableAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R582ac89109ba405a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R4f600a45c9024b68"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/075_GenericTableAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/075_GenericTableAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R4f600a45c9024b68"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R8f880511be1d4392"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/075_GenericTableAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/075_GenericTableAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R8f880511be1d4392"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R7f7e195fa3b94d6d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/075_GenericTableAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/075_GenericTableAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R7f7e195fa3b94d6d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Ra7025c58cb254860"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/075_GenericTableAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/075_GenericTableAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Ra7025c58cb254860"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R9c8c3183e8b94d24"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/075_GenericTableAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/075_GenericTableAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R9c8c3183e8b94d24"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R80f1d0038e5f4870"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/075_GenericTableAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/075_GenericTableAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R80f1d0038e5f4870"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R2e59a5e1f04344b4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,27 +30,27 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="5">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/075_GenericTableAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/075_GenericTableAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R2e59a5e1f04344b4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Ree6a5d8add6b4aa7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,27 +30,27 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="5">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/075_GenericTableAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/075_GenericTableAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Ree6a5d8add6b4aa7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R97ba682e52614231"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
